--- a/araikenichiro.blog.fc2.com/番号ごと/00001/00022/005_コーディング規約（SQL）.xlsx
+++ b/araikenichiro.blog.fc2.com/番号ごと/00001/00022/005_コーディング規約（SQL）.xlsx
@@ -3,13 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569ED9D8-57B7-4E63-BFA7-544A7C93A7BD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0343DBAD-5B70-4EFF-BB06-549E571BD005}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="1935" windowWidth="28470" windowHeight="8445" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="570" windowWidth="27480" windowHeight="17205" tabRatio="814" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="01_テンプレート" sheetId="46" r:id="rId2"/>
+    <sheet name="001_共通フォーマット" sheetId="47" r:id="rId2"/>
+    <sheet name="002_テーブル作成フォーマット" sheetId="48" r:id="rId3"/>
+    <sheet name="003_検索フォーマット" sheetId="49" r:id="rId4"/>
+    <sheet name="004_挿入フォーマット" sheetId="50" r:id="rId5"/>
+    <sheet name="005_更新フォーマット" sheetId="51" r:id="rId6"/>
+    <sheet name="00_テンプレート" sheetId="46" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">一覧!$A$1:$E$2</definedName>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="37">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -122,40 +127,202 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>インデント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>基本要素のインデントは半角空白4文字。補助要素のインデントは半角空白2文字。</t>
+    <t>検索フォーマット</t>
     <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヨウソ</t>
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>挿入フォーマット</t>
+    <rPh sb="0" eb="2">
+      <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新フォーマット</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通フォーマット</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル作成のフォーマット</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通のフォーマット</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル作成フォーマット</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索のフォーマット</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>挿入のフォーマット</t>
+    <rPh sb="0" eb="2">
+      <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新のフォーマット</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通フォーマット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インデント。半角空白4文字</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>統一することにより、SQLファイルを読みやすく保守性を向上させるため。</t>
+    <rPh sb="0" eb="2">
+      <t>トウイツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ホシュセイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最初に、テーブルがある場合は、テーブルを削除する。</t>
+    <rPh sb="0" eb="2">
+      <t>サイショ</t>
     </rPh>
     <rPh sb="11" eb="13">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ホジョ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>モジ</t>
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インデント。特定のキーワードの場合</t>
+    <rPh sb="6" eb="8">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「,」を行の先頭に付ける</t>
+    <rPh sb="4" eb="5">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特殊のテーブルの場合</t>
+    <rPh sb="0" eb="2">
+      <t>トクシュ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次に、テーブルを作成する。
+カラムの定義を1行ずつ定義する。
+「,」を行の先頭に付ける</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次に、コメントを作成する。
+カラムの定義を1行ずつ定義する。
+「,」を行の先頭に付ける</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見やすいようにする。</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1行1行定義し、保守しやすいようにする。</t>
+    <rPh sb="1" eb="2">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホシュ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -279,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -323,6 +490,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -338,6 +508,1302 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>458745</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>229762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{846077C7-A5E6-45FD-BB19-5924CE86EF3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="2857500"/>
+          <a:ext cx="11069595" cy="8326012"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2028825</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47644</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="グループ化 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72A1534C-5624-4ED4-9132-B78F8CCCE621}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3438525" y="5114933"/>
+          <a:ext cx="7429501" cy="647711"/>
+          <a:chOff x="5926229" y="11693236"/>
+          <a:chExt cx="6941655" cy="452647"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="正方形/長方形 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{770AA4EE-9E2A-4566-A6FA-455F872D343B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5926229" y="11693236"/>
+            <a:ext cx="4084897" cy="232980"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC6C4EB9-566E-4915-A52D-6E01DF92D2B4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="5" idx="3"/>
+            <a:endCxn id="7" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10011126" y="11809727"/>
+            <a:ext cx="743681" cy="121293"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="正方形/長方形 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67102E05-B9DF-4F52-A7CE-C40A471AD5A1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10754807" y="11716155"/>
+            <a:ext cx="2113077" cy="429728"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>インデント。半角空白</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>4</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>文字。</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>「</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>」を行の先頭に付ける</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>458745</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>173202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4B53950-3C62-4B22-988F-FE8F8D7DE714}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="3571875"/>
+          <a:ext cx="11069595" cy="12555702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>458745</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>173202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF7B71F8-AF19-46C8-BFC1-F9CCF7D39621}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="16192500"/>
+          <a:ext cx="11069595" cy="12555702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>458745</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>173202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DE408CF-0D73-48B4-9624-1260E7D5F1E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="28813125"/>
+          <a:ext cx="11069595" cy="12555702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2105023</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171436</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="グループ化 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7DAB393-AC9E-453D-AF36-2B0B57E310D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3514723" y="6524611"/>
+          <a:ext cx="8515352" cy="552450"/>
+          <a:chOff x="5899530" y="11699892"/>
+          <a:chExt cx="7956207" cy="386075"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="正方形/長方形 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{238B9E91-7563-4937-A3EF-3E5A79BCA518}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5899530" y="11699892"/>
+            <a:ext cx="2803364" cy="386075"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64D4F980-5769-4972-B180-D2B6F766A41F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="9" idx="3"/>
+            <a:endCxn id="11" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="8702894" y="11881093"/>
+            <a:ext cx="1544638" cy="11836"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="正方形/長方形 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91FE3300-91C6-48AA-BAFC-A01762DB8C8C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10247532" y="11742781"/>
+            <a:ext cx="3608205" cy="276623"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>最初に、テーブルがある場合は、テーブルを削除する。</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2114548</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47640</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="グループ化 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{921C8D70-6898-4CD7-8169-3594DDB87C64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3524248" y="7096140"/>
+          <a:ext cx="7105652" cy="809625"/>
+          <a:chOff x="5899530" y="11653305"/>
+          <a:chExt cx="6639072" cy="565799"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="正方形/長方形 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4713CA5-1928-439B-A10C-51A8EDAF3B35}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5899530" y="11679922"/>
+            <a:ext cx="2803364" cy="505892"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{813B4738-E2B9-460F-B746-C165A1A1277A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="16" idx="3"/>
+            <a:endCxn id="18" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8702894" y="11932868"/>
+            <a:ext cx="1517938" cy="3337"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="正方形/長方形 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F7732F-DBBD-4EB6-B0FE-D8282D34DA24}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10220832" y="11653305"/>
+            <a:ext cx="2317770" cy="565799"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>次に、テーブルを作成する。</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>カラムの定義を</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>行ずつ定義する。</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>「</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>」を行の先頭に付ける</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2114548</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57141</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314322</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="24" name="グループ化 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFD42AB9-F826-49BA-A6A1-E7FA4E76B657}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3524248" y="7915266"/>
+          <a:ext cx="6972299" cy="4562485"/>
+          <a:chOff x="5899530" y="11693235"/>
+          <a:chExt cx="6514475" cy="3188453"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="正方形/長方形 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31375FFA-CD96-4D3C-B00C-6F451EF512C5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5899530" y="11693235"/>
+            <a:ext cx="2803364" cy="3188453"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC1D85E5-6D4A-4BE1-AC82-E4A8F97DB4D4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="25" idx="3"/>
+            <a:endCxn id="27" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="8702894" y="13284138"/>
+            <a:ext cx="1598033" cy="3324"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="正方形/長方形 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61129064-91A9-473E-A028-40F4846297E6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10300928" y="12991252"/>
+            <a:ext cx="2113077" cy="585772"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>次に、コメントを作成する。</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>カラムの定義を</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>行ずつ定義する。</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>「</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>」を行の先頭に付ける</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>458745</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>10623</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BCABF84-873E-460E-BF15-10B82F161CEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="3571875"/>
+          <a:ext cx="11069595" cy="7868748"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>458745</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>10623</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51B9AE4D-FA61-4A04-917E-1E1E3B088E18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="3571875"/>
+          <a:ext cx="11069595" cy="7868748"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>458745</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>10623</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA3E49F3-1C5A-44EF-8567-46A1AD23306F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="3571875"/>
+          <a:ext cx="11069595" cy="7868748"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -603,9 +2069,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -615,8 +2081,8 @@
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60.875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="5"/>
@@ -639,7 +2105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="37.5">
+    <row r="2" spans="1:5">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -647,10 +2113,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -661,90 +2127,58 @@
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" s="10" customFormat="1">
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" s="12" customFormat="1">
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" s="12" customFormat="1">
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" s="12" customFormat="1">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" s="12" customFormat="1">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" s="12" customFormat="1">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" s="12" customFormat="1">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" s="12" customFormat="1">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" s="12" customFormat="1">
-      <c r="A12" s="8">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E2" xr:uid="{BC49F2C9-5664-495B-8669-4B21211819C7}"/>
@@ -754,6 +2188,572 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AA3B37-DAF2-47AB-83CA-4492F25D575E}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.125" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="4"/>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="37.5">
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B11:C11"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA15975-C164-4D44-A0E0-DF0FF6337FFA}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.125" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="56.25">
+      <c r="B6" s="3"/>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="56.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="3"/>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="37.5">
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B13:C13"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DAD2831-326E-496E-9C8B-5335AAB1E83F}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.125" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="3"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="4"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" ht="37.5">
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B15:C15"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49CDD78-D020-4A6F-856C-9944E1DB0F6F}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.125" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="3"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="4"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" ht="37.5">
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B15:C15"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCE9CB2-D95A-4692-A258-7AA38154ADB6}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.125" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="3"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="4"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" ht="37.5">
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B15:C15"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89176D82-5A71-4F86-8C58-22E02CAB10F5}">
   <dimension ref="A1:C15"/>
   <sheetViews>

--- a/araikenichiro.blog.fc2.com/番号ごと/00001/00022/005_コーディング規約（SQL）.xlsx
+++ b/araikenichiro.blog.fc2.com/番号ごと/00001/00022/005_コーディング規約（SQL）.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0343DBAD-5B70-4EFF-BB06-549E571BD005}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373F8912-8FE4-4023-A7F3-F7B34E1879F3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="570" windowWidth="27480" windowHeight="17205" tabRatio="814" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2250" windowWidth="31050" windowHeight="14520" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,8 @@
     <sheet name="003_検索フォーマット" sheetId="49" r:id="rId4"/>
     <sheet name="004_挿入フォーマット" sheetId="50" r:id="rId5"/>
     <sheet name="005_更新フォーマット" sheetId="51" r:id="rId6"/>
-    <sheet name="00_テンプレート" sheetId="46" state="hidden" r:id="rId7"/>
+    <sheet name="006_EXISTSを利用する" sheetId="52" r:id="rId7"/>
+    <sheet name="00_テンプレート" sheetId="46" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">一覧!$A$1:$E$2</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="59">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -323,6 +324,300 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ホシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ORDER BY」は1行ずつ実装する。
+「,」を行の先頭に付ける。
+「DESC」は行の最後に位置に置き、揃える。</t>
+    <rPh sb="42" eb="43">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ソロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「SELECT」は1行ずつ実装する。
+別名は「AS」を付け、場所を整える。
+「,」を行の先頭に付ける。</t>
+    <rPh sb="10" eb="11">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列の定義は１行ずつ実装する。
+「,」を行の先頭に付ける。</t>
+    <rPh sb="0" eb="1">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EXISTSを利用する</t>
+    <rPh sb="7" eb="9">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://qiita.com/kite_999/items/05136fadebc4048e3bb6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値は１行ずつ実装する。
+「,」を行の先頭に付ける。</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「INSERT INTO テーブル名 (」は先頭に実装する。</t>
+    <rPh sb="17" eb="18">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「) VALUES (」は１行で実装する。</t>
+    <rPh sb="14" eb="15">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「)」は最後に独立して実装する。</t>
+    <rPh sb="4" eb="6">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ドクリツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「SELECT」、「FROM」、「WHRE」、「GROUP BY」、「ORDER BY」は行の先頭にし、独立して実装する。</t>
+    <rPh sb="45" eb="46">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ドクリツ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「UPDATE」、「SET」、「WHRE」は行の先頭にし、独立して実装する。</t>
+    <rPh sb="22" eb="23">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ドクリツ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「SET」は1行ずつ実装する。
+「,」を行の先頭に付ける。</t>
+    <rPh sb="7" eb="8">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「WHERE」は1行ずつ実装する。
+「AND」（OR）は行の先頭に置いて位置は揃える。</t>
+    <rPh sb="28" eb="29">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ソロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「FROM」は１行ずつ実装する。
+別名は「AS」を付け、場所を整える。
+「INNER JOIN」は半角空白2つでインデントし、「ON」は半角空白4つでインデントする。
+「ON」と「AND」（OR）の条件は行の先頭に置いて位置は揃える。</t>
+    <rPh sb="8" eb="9">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>ソロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「IN」を使わず「EXISTS」を使用する、また、「NOT IN」を使用せず「NOT EXISTS」を使用する。</t>
+    <rPh sb="5" eb="6">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「IN」を使わず「EXISTS」を使用する。</t>
+    <rPh sb="5" eb="6">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「NOT IN」を使用せず「NOT EXISTS」を使用する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「EXISTS」や「NOT EXISTS」を使用することで大幅にパフォーマンスが落ちる場合。</t>
+    <rPh sb="29" eb="31">
+      <t>オオハバ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「EXISTS」や「NOT EXISTS」を使う方がSQLのイメージがしやすく、改修が行いやすい。</t>
+    <rPh sb="22" eb="23">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「IN」や「NOT IN」よりもパフォーマンスを上げやすい。</t>
+    <rPh sb="24" eb="25">
+      <t>ア</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -334,7 +629,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +651,14 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -443,10 +746,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -484,17 +788,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1647,13 +1955,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>458745</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>10623</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1693,6 +2001,319 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2019299</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142867</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="グループ化 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A4BC381-2CBD-4606-A50C-EE5A557ABC51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3428999" y="8820150"/>
+          <a:ext cx="9867900" cy="1085842"/>
+          <a:chOff x="5899529" y="11693244"/>
+          <a:chExt cx="8467296" cy="758832"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="正方形/長方形 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DD6650D-3BA1-4BC7-8BB9-828269C66459}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5899529" y="11699892"/>
+            <a:ext cx="3571631" cy="545839"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C66BBF7E-7D97-4B15-B0EE-8895233A04B8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="5" idx="3"/>
+            <a:endCxn id="7" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9471160" y="11972812"/>
+            <a:ext cx="1287461" cy="99848"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="正方形/長方形 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B307CBDA-8E4F-42BF-9257-AF3E006539F8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10758620" y="11693244"/>
+            <a:ext cx="3608205" cy="758832"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>「</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>INNER JOIN</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>」は半角空白</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>つでインデントし、「</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ON</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>」は半角空白</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>4</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>つでインデントする。</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>「</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ON</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>」と「</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>AND</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>」（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>OR</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>）の条件は行の先頭に置いて位置は揃える。</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1702,13 +2323,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>458745</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>10623</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1757,13 +2378,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>458745</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>10623</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2069,9 +2690,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2180,9 +2801,29 @@
       </c>
       <c r="E6" s="1"/>
     </row>
+    <row r="7" spans="1:5" s="12" customFormat="1" ht="37.5">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E2" xr:uid="{BC49F2C9-5664-495B-8669-4B21211819C7}"/>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{65673A45-8E55-425D-820F-31D1E04F7F78}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2191,9 +2832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AA3B37-DAF2-47AB-83CA-4492F25D575E}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2206,10 +2845,10 @@
       <c r="A1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="13"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -2261,7 +2900,7 @@
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2277,10 +2916,10 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2297,9 +2936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA15975-C164-4D44-A0E0-DF0FF6337FFA}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2312,10 +2949,10 @@
       <c r="A1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="13"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -2395,10 +3032,10 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2413,11 +3050,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DAD2831-326E-496E-9C8B-5335AAB1E83F}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2430,10 +3065,10 @@
       <c r="A1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="13"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -2459,65 +3094,75 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="37.5">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="56.25">
       <c r="B6" s="3"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" s="4"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="93.75">
+      <c r="B7" s="3"/>
+      <c r="C7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="37.5">
+      <c r="B8" s="4"/>
+      <c r="C8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="56.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" s="2" t="s">
+      <c r="C10" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" s="3"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" s="3"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" s="4"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" ht="37.5">
-      <c r="B13" s="1" t="s">
+      <c r="C11" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="37.5">
+      <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C14" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2527,11 +3172,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49CDD78-D020-4A6F-856C-9944E1DB0F6F}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2544,10 +3187,10 @@
       <c r="A1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="13"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -2577,61 +3220,71 @@
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="37.5">
       <c r="B6" s="3"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="4"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" s="2" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="37.5">
+      <c r="B8" s="3"/>
+      <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="3"/>
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" s="2" t="s">
+      <c r="C10" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" s="3"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" s="3"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" s="4"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" ht="37.5">
-      <c r="B13" s="1" t="s">
+      <c r="C11" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="37.5">
+      <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C14" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2641,11 +3294,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCE9CB2-D95A-4692-A258-7AA38154ADB6}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2658,10 +3309,10 @@
       <c r="A1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="13"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -2687,65 +3338,63 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="37.5">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="37.5">
       <c r="B6" s="3"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="37.5">
       <c r="B7" s="4"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" s="3"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" s="3"/>
-      <c r="C11" s="1"/>
+      <c r="C9" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="37.5">
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="4"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" ht="37.5">
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C12" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2754,6 +3403,105 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F09EDE3-2965-45C6-85ED-0368839910F0}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.125" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="37.5">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="37.5">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="37.5">
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="3"/>
+      <c r="C9" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="37.5">
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89176D82-5A71-4F86-8C58-22E02CAB10F5}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -2770,10 +3518,10 @@
       <c r="A1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="13"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -2841,10 +3589,10 @@
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
